--- a/dataset_v1/task_sheet_answers/EntireShippingCosts/6_EntireShippingCosts/6_EntireShippingCosts_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/EntireShippingCosts/6_EntireShippingCosts/6_EntireShippingCosts_gt1.xlsx
@@ -1,290 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\EntireShippingCosts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E0EBA4-36D3-4BFD-AA47-026A715BFC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{134BE2BE-B2C4-40DC-9526-9AC5254CBFD7}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
-  <si>
-    <t>Customers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>Glendale</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>Little Rock</t>
-  </si>
-  <si>
-    <t>Antioch</t>
-  </si>
-  <si>
-    <t>Berkeley</t>
-  </si>
-  <si>
-    <t>Chula Vista</t>
-  </si>
-  <si>
-    <t>Concord</t>
-  </si>
-  <si>
-    <t>Daly City</t>
-  </si>
-  <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>Hayward</t>
-  </si>
-  <si>
-    <t>Huntington Beach</t>
-  </si>
-  <si>
-    <t>Long Beach</t>
-  </si>
-  <si>
-    <t>Modesto</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sunnyvale</t>
-  </si>
-  <si>
-    <t>Thousand Oaks</t>
-  </si>
-  <si>
-    <t>Vallejo</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Colorado Springs</t>
-  </si>
-  <si>
-    <t>Denver</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Joliet</t>
-  </si>
-  <si>
-    <t>Evansville</t>
-  </si>
-  <si>
-    <t>Fort Wayne</t>
-  </si>
-  <si>
-    <t>Cedar Rapids</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>Topeka</t>
-  </si>
-  <si>
-    <t>Lexington-Fayette</t>
-  </si>
-  <si>
-    <t>Louisville-Jefferson County5</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
-    <t>Ann Arbor</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>St. Paul</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
-    <t>Omaha</t>
-  </si>
-  <si>
-    <t>Henderson</t>
-  </si>
-  <si>
-    <t>Reno</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Jersey City</t>
-  </si>
-  <si>
-    <t>Newark</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Yonkers</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>Durham</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Cleveland</t>
-  </si>
-  <si>
-    <t>Norman</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Providence</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Sioux Falls</t>
-  </si>
-  <si>
-    <t>Clarksville</t>
-  </si>
-  <si>
-    <t>Killeen</t>
-  </si>
-  <si>
-    <t>Laredo</t>
-  </si>
-  <si>
-    <t>Mesquite</t>
-  </si>
-  <si>
-    <t>Alexandria</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Spokane</t>
-  </si>
-  <si>
-    <t>Green Bay</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birmingham</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oakland</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -300,30 +58,90 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1" xr:uid="{EB5A45CA-495E-4D4B-BD45-09A14DBD65E2}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 6" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -623,1232 +441,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131FD02-5136-4587-8796-E5071711B6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E71"/>
+      <selection activeCell="A1" sqref="A1:E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="17.77734375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="11.21875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Customers</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>2525</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Portland</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>2065</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>2480</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>2173</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>2494</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>523</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Spokane</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>1714</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>2244</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>864</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Reno</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>738</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>1964</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>2267</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Fairfield</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>759</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>2129</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>2339</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Vallejo</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>2143</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>2328</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Concord</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>785</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>2155</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>2319</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Berkeley</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>795</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>2165</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>2319</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Antioch</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>796</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>2146</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>2299</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Daly City</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>813</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>2183</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>2329</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>816</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>2186</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>2306</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Modesto</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>822</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>2158</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>2248</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>834</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>2204</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>2290</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>2205</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>2293</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Thousand Oaks</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>1143</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>2092</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>2062</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Henderson</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>1145</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>1806</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>1799</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Long Beach</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>1156</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>2071</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>2042</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Huntington Beach</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>1162</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>2063</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>2034</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Chula Vista</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>1258</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>2124</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
         <v>1318</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>1043</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>1328</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>1246</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>1332</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>1045</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>1318</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>1260</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>1388</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>1114</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>1312</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>1316</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Glendale</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
         <v>1405</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>1870</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>1715</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>744</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Scottsdale</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
         <v>1435</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>1818</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>1706</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>754</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Mesa</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
         <v>1440</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>1816</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>1702</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>758</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Chandler</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
         <v>1447</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>1830</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>1686</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0" t="n">
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Sioux Falls</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
         <v>1478</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>497</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>1053</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>1727</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Omaha</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
         <v>1659</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>869</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>1661</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>St. Paul</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
         <v>1668</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>1069</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>1970</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Cedar Rapids</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
         <v>1832</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>782</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>1919</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
         <v>1840</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>569</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>688</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>1800</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34">
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
         <v>1842</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>576</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>695</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>1802</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35">
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Topeka</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
         <v>1848</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>748</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>1776</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
         <v>1927</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>811</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>2091</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Green Bay</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
         <v>1934</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>878</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2224</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38">
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>773</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>639</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>1718</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39">
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Norman</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>892</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>1639</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40">
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Joliet</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
         <v>2052</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>2099</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41">
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
         <v>2067</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>663</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>2124</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42">
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
         <v>2089</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>2050</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43">
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Killeen</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
         <v>2091</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>1156</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>741</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>1744</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44">
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Mesquite</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
         <v>2123</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>1052</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>629</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>1734</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45">
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Laredo</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
         <v>2219</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>1432</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>1780</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46">
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Fort Wayne</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
         <v>2233</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>597</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>2269</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47">
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Evansville</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
         <v>2254</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>2214</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Little Rock</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
         <v>2277</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>743</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>373</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>1955</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49">
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Ann Arbor</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
         <v>2314</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>710</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>2351</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Cincinnati</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
         <v>2327</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>389</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>2374</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51">
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Louisville-Jefferson County5</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
         <v>2340</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>363</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>2317</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52">
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
         <v>2352</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>381</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>722</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>2389</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53">
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Clarksville</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
         <v>2359</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>561</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>2294</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54">
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Lexington-Fayette</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
         <v>2406</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>2383</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55">
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
         <v>2417</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>446</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>712</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>2453</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
         <v>2535</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>564</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>753</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>2572</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57">
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
         <v>2617</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>1016</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>2265</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58">
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Baltimore</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="n">
         <v>2771</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>781</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>2808</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Alexandria</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="n">
         <v>2781</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>811</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>746</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>2818</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60">
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="n">
         <v>2832</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>861</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>878</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>2869</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61">
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="n">
         <v>2835</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>903</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>2678</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62">
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="n">
         <v>2852</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>881</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>952</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>2889</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63">
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Durham</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="n">
         <v>2856</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>885</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>531</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>2808</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64">
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="n">
         <v>2857</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>886</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>950</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0" t="n">
         <v>2894</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65">
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="n">
         <v>2860</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>889</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>959</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>2896</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66">
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="n">
         <v>2863</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>892</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>964</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>2900</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67">
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Yonkers</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="n">
         <v>2873</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>902</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>980</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>2910</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68">
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Cary</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="n">
         <v>2876</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>905</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>543</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>2829</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69">
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="n">
         <v>2945</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>974</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>716</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>2950</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70">
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Providence</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="n">
         <v>3046</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>1075</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>1153</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>3083</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71">
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="n">
         <v>3087</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>1116</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>1214</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>3124</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
-    <sortCondition ref="B2:B71"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>